--- a/biology/Botanique/Abbaye_Sainte-Marie_de_Fontfroide/Abbaye_Sainte-Marie_de_Fontfroide.xlsx
+++ b/biology/Botanique/Abbaye_Sainte-Marie_de_Fontfroide/Abbaye_Sainte-Marie_de_Fontfroide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’abbaye de Fontfroide est une abbaye cistercienne située sur le territoire de la commune de Narbonne[a], dans le département de l'Aude en France. Initialement abbaye bénédictine (1093), elle est intégrée à l'ordre cistercien entre 1144 et 1145. Dans la seconde moitié du XIIe siècle, elle reçoit d'importants dons en terres d'Ermengarde de Narbonne, puis au milieu du XIIIe siècle, d'importants dons en terres et en nature d'Olivier de Termes qui lui permettent de réaliser de nouvelles constructions. Pendant la croisade des Albigeois, elle fut le fer de lance de l'orthodoxie catholique. Au XIVe siècle, l'un de ses abbés, Jacques Fournier, est élu pape sous le nom de Benoît XII. L'abbaye est classée à partir de 1862 au titre des monuments historiques[2]. Aujourd'hui, l'abbaye de Fontfroide est membre de la Charte des abbayes et sites cisterciens d'Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’abbaye de Fontfroide est une abbaye cistercienne située sur le territoire de la commune de Narbonne[a], dans le département de l'Aude en France. Initialement abbaye bénédictine (1093), elle est intégrée à l'ordre cistercien entre 1144 et 1145. Dans la seconde moitié du XIIe siècle, elle reçoit d'importants dons en terres d'Ermengarde de Narbonne, puis au milieu du XIIIe siècle, d'importants dons en terres et en nature d'Olivier de Termes qui lui permettent de réaliser de nouvelles constructions. Pendant la croisade des Albigeois, elle fut le fer de lance de l'orthodoxie catholique. Au XIVe siècle, l'un de ses abbés, Jacques Fournier, est élu pape sous le nom de Benoît XII. L'abbaye est classée à partir de 1862 au titre des monuments historiques. Aujourd'hui, l'abbaye de Fontfroide est membre de la Charte des abbayes et sites cisterciens d'Europe.
 L'abbaye de Fontfroide est actuellement un monument privé détenu par les descendants de Gustave et Madeleine Fayet.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vicomte de Narbonne, Aymeric Ier, autorise une communauté de moines à se constituer sur ses terres de Fontfroide. L'abbaye est située dans le massif des Corbières, près d'un torrent. C'est à cette source d'eau fraîche (fons frigida) qu'elle doit son nom. Les armes de l'abbaye représentent d'ailleurs une fontaine.
-Au XIIe siècle, l'abbaye de Fontfroide s'est trouvée aux avant-postes dans la lutte contre l'hérésie cathare. En 1203, le moine de Fontfroide Pierre de Castelnau fut nommé légat pontifical par le pape Innocent III[5]. Dans la seconde moitié du XIIIe siècle, l'abbaye reçoit de nombreux dons du chevalier Olivier de Termes désireux de réparer les torts qu'il avait commis envers l'Église catholique. Il finance notamment la chapelle des Morts.
+Au XIIe siècle, l'abbaye de Fontfroide s'est trouvée aux avant-postes dans la lutte contre l'hérésie cathare. En 1203, le moine de Fontfroide Pierre de Castelnau fut nommé légat pontifical par le pape Innocent III. Dans la seconde moitié du XIIIe siècle, l'abbaye reçoit de nombreux dons du chevalier Olivier de Termes désireux de réparer les torts qu'il avait commis envers l'Église catholique. Il finance notamment la chapelle des Morts.
 Les moines sont dispersés par la Révolution française en 1791. Les cisterciens reviennent en 1848. Antoine-Marie Claret, ancien archevêque de Santiago de Cuba y trouve refuge quand il est pourchassé par le gouvernement anti-clérical espagnol, et y meurt le 24 octobre 1870. Les moines sont à nouveau expulsés par les lois anti-congrégationnistes de la Troisième République au début du XXe siècle.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des abbés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abbés réguliers[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abbés réguliers
 1118-1134 : Bernard Ier
 1134-1154 : Sanche
 1154-1168 : Vital Ier
@@ -616,7 +632,7 @@
 1443-1453 : Pierre XI Ferrari
 1453-1472 : Martial Ier de Rua
 1473-1484 : Pierre XII de La Roque
-Abbés commendataires[6]
+Abbés commendataires
 1484-1499 : Antoine III Pierre de Narbonne-Lara
 1499-1519 : Louis de Narbonne-Lara
 1519-1532 : Georges de Narbonne-Lara
@@ -662,7 +678,9 @@
           <t>Personnalités et moines célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1369 : Géraud Corrége, moine de l'abbaye que le pape Urbain V, nomme abbé de Franquevaux</t>
         </is>
@@ -694,18 +712,93 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>La cour d'honneur et le bâtiment des convers
-Après avoir franchi le porche d'entrée aux lignes élégantes, bâti vers 1777-1778, l'hôte de droite découvre le long rectangle de la cour d'honneur. Un mur de gros appareil et, en terrasse, les jardins à l'italienne implantés sans doute ici par Constance de Frégose au temps de l’abbatiat commendataire de ses deux fils. À gauche, un grand bâtiment de structure médiévale fut d’abord occupé par les frères convers puis transformé et réaménagé, notamment par l’ouverture de larges fenêtres à meneaux, afin d’accueillir l’hôtellerie. Au fond, l’espace est limité par une vaste arcature à trois baies dont celle du milieu, fermée par une grille de fer forgé, s’orne d’un fronton triangulaire classique. Cet ensemble se colore de l’ocre, rose et incarnat de grès, du vert des feuillages, de l’azur du ciel.
+          <t>La cour d'honneur et le bâtiment des convers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir franchi le porche d'entrée aux lignes élégantes, bâti vers 1777-1778, l'hôte de droite découvre le long rectangle de la cour d'honneur. Un mur de gros appareil et, en terrasse, les jardins à l'italienne implantés sans doute ici par Constance de Frégose au temps de l’abbatiat commendataire de ses deux fils. À gauche, un grand bâtiment de structure médiévale fut d’abord occupé par les frères convers puis transformé et réaménagé, notamment par l’ouverture de larges fenêtres à meneaux, afin d’accueillir l’hôtellerie. Au fond, l’espace est limité par une vaste arcature à trois baies dont celle du milieu, fermée par une grille de fer forgé, s’orne d’un fronton triangulaire classique. Cet ensemble se colore de l’ocre, rose et incarnat de grès, du vert des feuillages, de l’azur du ciel.
 Une porte permet l'accès au réfectoire des convers. Les dimensions imposantes de celui-ci, dont la longueur avoisine les cinquante mètres, amènent à imaginer une communauté de 180 à 200 frères. Ce vaisseau construit au début du XIIIe siècle se divise en cinq travées ouvertes de voûtes d’ogives étalées. Les arcs doubleaux de profil carré, les ogives et les nervures se fondent dans les murs. L’éclairage est apporté par des baies géminées vers l’ouest et en simple arc plein cintre à l’est. Les aménagements des XVIIe et XVIIIe siècles ont percé les deux portes centrales ouvrant l’une sur la cour d’honneur, l’autre sur la cour dite « Louis XIV ». Des cloisonnements avaient divisé la pièce en plusieurs espaces et on devine ainsi dans la deuxième travée des croix marquant la chapelle des « Étrangers ».
 La restauration de l'abbaye, depuis 1908 jusqu’à nos jours, a permis de retrouver le magnifique volume de la salle et d’ajouter divers éléments décoratifs en réemploi, telles les splendides grilles de fer forgé au motif de pampres et la grande cheminée Renaissance provenant vraisemblablement du château des ducs de Montmorency à Pézenas, détruit sur ordre de Richelieu après la révolte du dernier d’entre eux en 1632. Pouvant recevoir jusqu’à 700 auditeurs, cette salle à l’excellente acoustique sert de cadre à des concerts de musique de chambre et à des récitals d’artistes.
-La cour du XVIIIe siècle
-Cette cour est souvent dénommée « Louis XIV », à tort, car les documents attestent que sa configuration actuelle provient des travaux effectués à partir de 1775. Dans le monastère médiéval, sur un espace nettement plus restreint, s'ouvraient au nord les ateliers des frères convers : la menuiserie, la forge et la boulangerie au droit du moulin enjambant le torrent. À l’est se développait l’aile du noviciat tandis que vers le sud plusieurs bâtiments proprement conventuels débordaient largement dans cette cour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abbaye_Sainte-Marie_de_Fontfroide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Sainte-Marie_de_Fontfroide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Architecture de l'abbaye</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La cour du XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette cour est souvent dénommée « Louis XIV », à tort, car les documents attestent que sa configuration actuelle provient des travaux effectués à partir de 1775. Dans le monastère médiéval, sur un espace nettement plus restreint, s'ouvraient au nord les ateliers des frères convers : la menuiserie, la forge et la boulangerie au droit du moulin enjambant le torrent. À l’est se développait l’aile du noviciat tandis que vers le sud plusieurs bâtiments proprement conventuels débordaient largement dans cette cour.
 Tout l’ensemble se trouvait centré autour du puits, véritable citerne aux moellons parfaitement assemblés et qui s’approfondit en un gouffre creusé dans les calcaires fracturés. C’est là que se trouve une eau très froide, sans doute origine toponymique du nom Fontfroide (fons frigida) et en raison de la présence sur ce site de la première installation monacale. Toute implantation de monastère nécessite en effet une triple proximité : celle de la pierre, celle du bois et celle de l’eau. Tous ces éléments se trouvent réunis à Fontfroide.
 Quand l’abbaye, aux temps classiques, n’abrite plus ni convers, ni novices mais seulement un petit groupe de moines, ceux-ci détruisent les bâtiments devenus inutiles et modifient les constructions en les aménageant selon le goût de l’époque. Alors cette cour prend son aspect régulier, rectangulaire, par la réduction des surfaces de la cuisine, de la salle des moines (le scriptorium) et surtout du réfectoire. La surélévation du sol, de près de 30 centimètres, correspond aux déblais retirés de ces démolitions. Quant au noviciat, il fait place au logis du prieur conventuel avec une orangerie et, à l’étage, des logements spacieux. La façade cependant n’est qu’un décor de théâtre, placage sur la structure du XIIIe siècle.
-La ruelle des convers
-Dans les abbayes cisterciennes normalement orientées, comme c’est le cas de Fontfroide, le sanctuaire étant disposé vers l’est, le cloître contigu et les bâtiments adjacents occupent la partie orientale du monastère. Les frères convers se trouvent donc installés dans la partie occidentale, tournée vers l’extérieur. Là s’ouvre la porte principale par laquelle ces ouvriers peuvent sortir pour gagner le lieu de leur travail. C’est à partir de cette entrée que s’organise la distribution intérieure des bâtiments. Celle-ci doit faciliter et en même temps réglementer la communication entre les deux groupes de religieux. Il s’agit d’établir, tout en maintenant la séparation, des points de contact entre les lieux de vie. Par elle les frères convers avaient accès au cellier et au réfectoire, au passe-plat de la cuisine, commune aux profès et aux convers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abbaye_Sainte-Marie_de_Fontfroide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbaye_Sainte-Marie_de_Fontfroide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Architecture de l'abbaye</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La ruelle des convers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les abbayes cisterciennes normalement orientées, comme c’est le cas de Fontfroide, le sanctuaire étant disposé vers l’est, le cloître contigu et les bâtiments adjacents occupent la partie orientale du monastère. Les frères convers se trouvent donc installés dans la partie occidentale, tournée vers l’extérieur. Là s’ouvre la porte principale par laquelle ces ouvriers peuvent sortir pour gagner le lieu de leur travail. C’est à partir de cette entrée que s’organise la distribution intérieure des bâtiments. Celle-ci doit faciliter et en même temps réglementer la communication entre les deux groupes de religieux. Il s’agit d’établir, tout en maintenant la séparation, des points de contact entre les lieux de vie. Par elle les frères convers avaient accès au cellier et au réfectoire, au passe-plat de la cuisine, commune aux profès et aux convers.
 C’est en cheminant sous cette longue voûte en demi-berceau qu’ils se rendaient au fond de l’église, sans déranger l’office psalmodié par les moines installés, eux, dans la partie opposée de la nef. Au XVIIe siècle, les convers ayant disparu depuis longtemps, leur ancien dortoir, à l’étage, a été aménagé en spacieuses cellules pour des hôtes. Un grand escalier, que soutient un arc en anse de panier, conduit à l’entrée.
-Le cloître</t>
+</t>
         </is>
       </c>
     </row>
